--- a/data/pca/factorExposure/factorExposure_2009-06-05.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-06-05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01760691304889885</v>
+        <v>0.01670749996392611</v>
       </c>
       <c r="C2">
-        <v>-0.00160216646282999</v>
+        <v>-0.001143684287102626</v>
       </c>
       <c r="D2">
-        <v>-0.009025793947272039</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.009141699402529792</v>
+      </c>
+      <c r="E2">
+        <v>-0.00184793628070392</v>
+      </c>
+      <c r="F2">
+        <v>0.0119968999115944</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.09005989587661098</v>
+        <v>0.09187891481859027</v>
       </c>
       <c r="C4">
-        <v>-0.0199569016408317</v>
+        <v>-0.01506853803918116</v>
       </c>
       <c r="D4">
-        <v>-0.07729072663876882</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.08219205581984912</v>
+      </c>
+      <c r="E4">
+        <v>-0.02744704115961135</v>
+      </c>
+      <c r="F4">
+        <v>-0.03285593267850063</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.0001009370827062181</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-9.885454031241238e-06</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>8.251138442373188e-05</v>
+      </c>
+      <c r="E5">
+        <v>2.189959327861278e-05</v>
+      </c>
+      <c r="F5">
+        <v>5.794696453149719e-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1529583341659292</v>
+        <v>0.1616324513251292</v>
       </c>
       <c r="C6">
-        <v>-0.03021567196665469</v>
+        <v>-0.02937968820868318</v>
       </c>
       <c r="D6">
-        <v>0.03622176534726528</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.02629286833060983</v>
+      </c>
+      <c r="E6">
+        <v>-0.008752883139520414</v>
+      </c>
+      <c r="F6">
+        <v>-0.04058951545399061</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.06029604272428288</v>
+        <v>0.06239972886986141</v>
       </c>
       <c r="C7">
-        <v>-0.001877341076131954</v>
+        <v>0.001382316463230447</v>
       </c>
       <c r="D7">
-        <v>-0.04856347450524602</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05355436257594932</v>
+      </c>
+      <c r="E7">
+        <v>-0.01479520033882937</v>
+      </c>
+      <c r="F7">
+        <v>-0.04977598143857191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.06128014510266999</v>
+        <v>0.05686341713824371</v>
       </c>
       <c r="C8">
-        <v>0.01009808988285792</v>
+        <v>0.01196662722124794</v>
       </c>
       <c r="D8">
-        <v>-0.02497361839914602</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.0296395443518353</v>
+      </c>
+      <c r="E8">
+        <v>-0.01738463187274809</v>
+      </c>
+      <c r="F8">
+        <v>0.02818375643859934</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.06985416830784442</v>
+        <v>0.07137440439911812</v>
       </c>
       <c r="C9">
-        <v>-0.01591010765381027</v>
+        <v>-0.01065980209355789</v>
       </c>
       <c r="D9">
-        <v>-0.07987333378572377</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.08558455709731125</v>
+      </c>
+      <c r="E9">
+        <v>-0.02427492596027865</v>
+      </c>
+      <c r="F9">
+        <v>-0.0494960844390229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.08491670964320164</v>
+        <v>0.08680770704351672</v>
       </c>
       <c r="C10">
-        <v>-0.0160536021380442</v>
+        <v>-0.02171093020071582</v>
       </c>
       <c r="D10">
-        <v>0.1673883759042303</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1597021932082932</v>
+      </c>
+      <c r="E10">
+        <v>0.03192942586441518</v>
+      </c>
+      <c r="F10">
+        <v>0.05883012354410581</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.09122757104771775</v>
+        <v>0.08771421208346716</v>
       </c>
       <c r="C11">
-        <v>-0.01718646500703593</v>
+        <v>-0.01181614506902601</v>
       </c>
       <c r="D11">
-        <v>-0.1109624294332377</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.1177106202758065</v>
+      </c>
+      <c r="E11">
+        <v>-0.04917588542679931</v>
+      </c>
+      <c r="F11">
+        <v>-0.02659452696206665</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.09690021065926759</v>
+        <v>0.09062443586516321</v>
       </c>
       <c r="C12">
-        <v>-0.01547707738634567</v>
+        <v>-0.009258575803721716</v>
       </c>
       <c r="D12">
-        <v>-0.1180400968696949</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.1325728843735933</v>
+      </c>
+      <c r="E12">
+        <v>-0.04851419176142845</v>
+      </c>
+      <c r="F12">
+        <v>-0.03283564596957039</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04481150780874389</v>
+        <v>0.04348361440268896</v>
       </c>
       <c r="C13">
-        <v>-0.00658886469376953</v>
+        <v>-0.002688394656392246</v>
       </c>
       <c r="D13">
-        <v>-0.0437070463077512</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05390558488225414</v>
+      </c>
+      <c r="E13">
+        <v>0.0007728823893055434</v>
+      </c>
+      <c r="F13">
+        <v>-0.004771951575165393</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.01962289617361852</v>
+        <v>0.02344016693788324</v>
       </c>
       <c r="C14">
-        <v>-0.01518594527647489</v>
+        <v>-0.01385873324979729</v>
       </c>
       <c r="D14">
-        <v>-0.03166854543294934</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03238024174667491</v>
+      </c>
+      <c r="E14">
+        <v>-0.01955888467064554</v>
+      </c>
+      <c r="F14">
+        <v>-0.01248236826293292</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.03462861177132697</v>
+        <v>0.03429631386279965</v>
       </c>
       <c r="C15">
-        <v>-0.007561983969394304</v>
+        <v>-0.005656360460781691</v>
       </c>
       <c r="D15">
-        <v>-0.04562822810951421</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.04691525492995084</v>
+      </c>
+      <c r="E15">
+        <v>-0.008453414293816516</v>
+      </c>
+      <c r="F15">
+        <v>-0.02992080062334351</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.07525212078090593</v>
+        <v>0.07254180089347265</v>
       </c>
       <c r="C16">
-        <v>-0.007622429970989182</v>
+        <v>-0.0019161629779725</v>
       </c>
       <c r="D16">
-        <v>-0.1151020069650587</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.1285919327125759</v>
+      </c>
+      <c r="E16">
+        <v>-0.06319740377218155</v>
+      </c>
+      <c r="F16">
+        <v>-0.02952581123638176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.001152276674059104</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.0003410290754585273</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.00197738506194131</v>
+      </c>
+      <c r="E17">
+        <v>-0.001549725294912843</v>
+      </c>
+      <c r="F17">
+        <v>0.002221455680621635</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0.02417892577764333</v>
+        <v>0.04189706391782647</v>
       </c>
       <c r="C18">
-        <v>0.001966155792400589</v>
+        <v>0.002071197730729548</v>
       </c>
       <c r="D18">
-        <v>-0.02291726338028452</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.01571349220777088</v>
+      </c>
+      <c r="E18">
+        <v>0.00608292074492418</v>
+      </c>
+      <c r="F18">
+        <v>0.009081220893634076</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.06391421396426204</v>
+        <v>0.06208140713451258</v>
       </c>
       <c r="C20">
-        <v>-0.005203287468268781</v>
+        <v>-0.001176267138559409</v>
       </c>
       <c r="D20">
-        <v>-0.07226604935384773</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.07908852639438935</v>
+      </c>
+      <c r="E20">
+        <v>-0.05994415919535485</v>
+      </c>
+      <c r="F20">
+        <v>-0.03101058886180076</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.04108395230023545</v>
+        <v>0.04232140063499176</v>
       </c>
       <c r="C21">
-        <v>-0.009743633959302665</v>
+        <v>-0.007046949756249137</v>
       </c>
       <c r="D21">
-        <v>-0.0326619648838388</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.03556718145651927</v>
+      </c>
+      <c r="E21">
+        <v>-0.0004618125852576693</v>
+      </c>
+      <c r="F21">
+        <v>0.02414541826230383</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.04121347687299005</v>
+        <v>0.04311977164890031</v>
       </c>
       <c r="C22">
-        <v>-0.001470372892581616</v>
+        <v>-0.001151979490117008</v>
       </c>
       <c r="D22">
-        <v>-0.0009901896725727855</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.007201901156576761</v>
+      </c>
+      <c r="E22">
+        <v>-0.03759003653423938</v>
+      </c>
+      <c r="F22">
+        <v>0.04821529419788628</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.04116882098640813</v>
+        <v>0.04308913728167999</v>
       </c>
       <c r="C23">
-        <v>-0.001456891899124168</v>
+        <v>-0.001140542739731679</v>
       </c>
       <c r="D23">
-        <v>-0.001019537227209845</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.007216694527794784</v>
+      </c>
+      <c r="E23">
+        <v>-0.03761827031383583</v>
+      </c>
+      <c r="F23">
+        <v>0.04826897769846474</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.08263911902688595</v>
+        <v>0.07840422029098021</v>
       </c>
       <c r="C24">
-        <v>-0.008275926533971262</v>
+        <v>-0.002730891612687855</v>
       </c>
       <c r="D24">
-        <v>-0.1151627328432736</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.1208150751393078</v>
+      </c>
+      <c r="E24">
+        <v>-0.0508306409887595</v>
+      </c>
+      <c r="F24">
+        <v>-0.03223736136273147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.08728518252212278</v>
+        <v>0.08354675362776338</v>
       </c>
       <c r="C25">
-        <v>-0.01055396168420594</v>
+        <v>-0.005509890848364461</v>
       </c>
       <c r="D25">
-        <v>-0.1028161584618957</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.1098596384207681</v>
+      </c>
+      <c r="E25">
+        <v>-0.03372283863854737</v>
+      </c>
+      <c r="F25">
+        <v>-0.02914375456714056</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.05804595646310391</v>
+        <v>0.06053899051562391</v>
       </c>
       <c r="C26">
-        <v>-0.01811678059404133</v>
+        <v>-0.01486012991828641</v>
       </c>
       <c r="D26">
-        <v>-0.03405829339952635</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.04438667966791868</v>
+      </c>
+      <c r="E26">
+        <v>-0.03113521765529582</v>
+      </c>
+      <c r="F26">
+        <v>0.006585425219654882</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1329982170754286</v>
+        <v>0.1427163518065809</v>
       </c>
       <c r="C28">
-        <v>-0.01513012728502733</v>
+        <v>-0.02369732624240758</v>
       </c>
       <c r="D28">
-        <v>0.2663520003681558</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2600123230620713</v>
+      </c>
+      <c r="E28">
+        <v>0.06608355789768444</v>
+      </c>
+      <c r="F28">
+        <v>-0.004785322082039519</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02593707155979558</v>
+        <v>0.02848772605066198</v>
       </c>
       <c r="C29">
-        <v>-0.009921076150144491</v>
+        <v>-0.009059206964763603</v>
       </c>
       <c r="D29">
-        <v>-0.02930327951812341</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.02973741802083988</v>
+      </c>
+      <c r="E29">
+        <v>-0.01689383030042619</v>
+      </c>
+      <c r="F29">
+        <v>0.01284963029846447</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.05967361953049793</v>
+        <v>0.0565475066414575</v>
       </c>
       <c r="C30">
-        <v>-0.007848066334087189</v>
+        <v>-0.002654603956320481</v>
       </c>
       <c r="D30">
-        <v>-0.0802540711095098</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08800457470126631</v>
+      </c>
+      <c r="E30">
+        <v>-0.01420124900731472</v>
+      </c>
+      <c r="F30">
+        <v>-0.07928033681998609</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.05069540047724874</v>
+        <v>0.05103744154609929</v>
       </c>
       <c r="C31">
-        <v>-0.01753987758960909</v>
+        <v>-0.01626830539085601</v>
       </c>
       <c r="D31">
-        <v>-0.02132593129135043</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.02406894107716884</v>
+      </c>
+      <c r="E31">
+        <v>-0.02869711785922571</v>
+      </c>
+      <c r="F31">
+        <v>0.0005144463842464451</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.04814097598268479</v>
+        <v>0.05170541039102467</v>
       </c>
       <c r="C32">
-        <v>-0.002124239207854069</v>
+        <v>0.001235453686432056</v>
       </c>
       <c r="D32">
-        <v>-0.02879211194182259</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.03378746768070752</v>
+      </c>
+      <c r="E32">
+        <v>-0.03449956699810237</v>
+      </c>
+      <c r="F32">
+        <v>-0.002902374485953369</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.09072800167566795</v>
+        <v>0.08985103406902971</v>
       </c>
       <c r="C33">
-        <v>-0.01355416116687554</v>
+        <v>-0.007570782228205454</v>
       </c>
       <c r="D33">
-        <v>-0.09008311285678507</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1040757798814503</v>
+      </c>
+      <c r="E33">
+        <v>-0.04610934926756914</v>
+      </c>
+      <c r="F33">
+        <v>-0.04464473128582327</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.06934095861944778</v>
+        <v>0.06721124965290662</v>
       </c>
       <c r="C34">
-        <v>-0.0156291081393864</v>
+        <v>-0.01082715221482127</v>
       </c>
       <c r="D34">
-        <v>-0.09665572345927255</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.1087208789887665</v>
+      </c>
+      <c r="E34">
+        <v>-0.03643279272713155</v>
+      </c>
+      <c r="F34">
+        <v>-0.0363340163677073</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.02544945580782471</v>
+        <v>0.0268692097354647</v>
       </c>
       <c r="C35">
-        <v>-0.003915063450926224</v>
+        <v>-0.003402896446367401</v>
       </c>
       <c r="D35">
-        <v>-0.008101109918045819</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01157740672839282</v>
+      </c>
+      <c r="E35">
+        <v>-0.01479042910299916</v>
+      </c>
+      <c r="F35">
+        <v>-0.0006535195732399044</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02525534301081668</v>
+        <v>0.02872338237038732</v>
       </c>
       <c r="C36">
-        <v>-0.008224285626349368</v>
+        <v>-0.007088255118291511</v>
       </c>
       <c r="D36">
-        <v>-0.03830040386510279</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.03957710290006616</v>
+      </c>
+      <c r="E36">
+        <v>-0.01849047570840263</v>
+      </c>
+      <c r="F36">
+        <v>-0.01553954256652374</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.001870675380021675</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0006162082752759286</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.002930859745698872</v>
+      </c>
+      <c r="E37">
+        <v>-8.243610072198977e-05</v>
+      </c>
+      <c r="F37">
+        <v>0.001607865348928463</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.111123789706592</v>
+        <v>0.09975111566245189</v>
       </c>
       <c r="C39">
-        <v>-0.02307146690655745</v>
+        <v>-0.01650469680403342</v>
       </c>
       <c r="D39">
-        <v>-0.1477258232002765</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1512962078513005</v>
+      </c>
+      <c r="E39">
+        <v>-0.05998895861686156</v>
+      </c>
+      <c r="F39">
+        <v>-0.02275659297369321</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.03884518671152089</v>
+        <v>0.0440040030785311</v>
       </c>
       <c r="C40">
-        <v>-0.009447828407879735</v>
+        <v>-0.007993219964996388</v>
       </c>
       <c r="D40">
-        <v>-0.02373458539842317</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03262758531192265</v>
+      </c>
+      <c r="E40">
+        <v>-0.002702239521649433</v>
+      </c>
+      <c r="F40">
+        <v>0.01523557394375178</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02463210949812678</v>
+        <v>0.02641376086784948</v>
       </c>
       <c r="C41">
-        <v>-0.007413996450721619</v>
+        <v>-0.006820473962849338</v>
       </c>
       <c r="D41">
-        <v>-0.007487779755170517</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.009785784965112388</v>
+      </c>
+      <c r="E41">
+        <v>-0.01238578698163557</v>
+      </c>
+      <c r="F41">
+        <v>0.007314985844524921</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.04178090225819433</v>
+        <v>0.03991342407355608</v>
       </c>
       <c r="C43">
-        <v>-0.008558434759715124</v>
+        <v>-0.007846049957398718</v>
       </c>
       <c r="D43">
-        <v>-0.01612488810215643</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.01874256804072989</v>
+      </c>
+      <c r="E43">
+        <v>-0.02620700448129468</v>
+      </c>
+      <c r="F43">
+        <v>0.01588161848236712</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.06815586764810896</v>
+        <v>0.07766283440613397</v>
       </c>
       <c r="C44">
-        <v>-0.02418621311770068</v>
+        <v>-0.02001212551670861</v>
       </c>
       <c r="D44">
-        <v>-0.09550735544199426</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.0959622580985685</v>
+      </c>
+      <c r="E44">
+        <v>-0.06115480008261665</v>
+      </c>
+      <c r="F44">
+        <v>-0.1688177581500672</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.02142113502276877</v>
+        <v>0.02411897569082438</v>
       </c>
       <c r="C46">
-        <v>-0.004405922086631166</v>
+        <v>-0.003666447104376172</v>
       </c>
       <c r="D46">
-        <v>-0.008760217939659969</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01198031144585264</v>
+      </c>
+      <c r="E46">
+        <v>-0.02949461877856357</v>
+      </c>
+      <c r="F46">
+        <v>0.004405688603678641</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.05372335034747703</v>
+        <v>0.05290921940588</v>
       </c>
       <c r="C47">
-        <v>-0.005613647363520155</v>
+        <v>-0.004703800832734459</v>
       </c>
       <c r="D47">
-        <v>-0.007059112947302282</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.010886913621706</v>
+      </c>
+      <c r="E47">
+        <v>-0.0240412021564453</v>
+      </c>
+      <c r="F47">
+        <v>0.03125157673810065</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04855384750993617</v>
+        <v>0.05110000197570135</v>
       </c>
       <c r="C48">
-        <v>-0.005185508514236051</v>
+        <v>-0.002505337469893347</v>
       </c>
       <c r="D48">
-        <v>-0.04697973875926348</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.04996931898095525</v>
+      </c>
+      <c r="E48">
+        <v>0.003978258170657086</v>
+      </c>
+      <c r="F48">
+        <v>-0.01294595997391218</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.1987387510170309</v>
+        <v>0.2002350085505962</v>
       </c>
       <c r="C49">
-        <v>-0.02332414513838342</v>
+        <v>-0.0213911015011635</v>
       </c>
       <c r="D49">
-        <v>0.01274854222617642</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.004078954472542357</v>
+      </c>
+      <c r="E49">
+        <v>-0.03105072663068409</v>
+      </c>
+      <c r="F49">
+        <v>-0.04984528352732117</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.04915034327600793</v>
+        <v>0.05111691986854712</v>
       </c>
       <c r="C50">
-        <v>-0.01319402884240521</v>
+        <v>-0.01189577275898808</v>
       </c>
       <c r="D50">
-        <v>-0.02079604625143741</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.02333187836828102</v>
+      </c>
+      <c r="E50">
+        <v>-0.03108824449876851</v>
+      </c>
+      <c r="F50">
+        <v>-0.009938786991810333</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1551908595348799</v>
+        <v>0.148272540514169</v>
       </c>
       <c r="C52">
-        <v>-0.02143746132016874</v>
+        <v>-0.01942218307403902</v>
       </c>
       <c r="D52">
-        <v>-0.04166618367400866</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.04284124968109215</v>
+      </c>
+      <c r="E52">
+        <v>-0.02045693679701262</v>
+      </c>
+      <c r="F52">
+        <v>-0.04185333166744867</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1744241756637056</v>
+        <v>0.1688036031259751</v>
       </c>
       <c r="C53">
-        <v>-0.02247553389518284</v>
+        <v>-0.02256117888584929</v>
       </c>
       <c r="D53">
-        <v>-0.005774691529491975</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.006267123367417314</v>
+      </c>
+      <c r="E53">
+        <v>-0.02717636919910513</v>
+      </c>
+      <c r="F53">
+        <v>-0.07491795770922294</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01766666876947897</v>
+        <v>0.01959282902714671</v>
       </c>
       <c r="C54">
-        <v>-0.01228176927765055</v>
+        <v>-0.01112863391613077</v>
       </c>
       <c r="D54">
-        <v>-0.0295922534267836</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03026654172480338</v>
+      </c>
+      <c r="E54">
+        <v>-0.02180714120848514</v>
+      </c>
+      <c r="F54">
+        <v>0.002252259165513309</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.1183358137377801</v>
+        <v>0.1166353416169469</v>
       </c>
       <c r="C55">
-        <v>-0.01978637586996138</v>
+        <v>-0.01980582378433036</v>
       </c>
       <c r="D55">
-        <v>-0.00464107772068316</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.008471076663106697</v>
+      </c>
+      <c r="E55">
+        <v>-0.02543061233189168</v>
+      </c>
+      <c r="F55">
+        <v>-0.04649691043819842</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1808008332144253</v>
+        <v>0.175915599523608</v>
       </c>
       <c r="C56">
-        <v>-0.02058032734969465</v>
+        <v>-0.02084871487914936</v>
       </c>
       <c r="D56">
-        <v>0.006985857958806538</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.002498113969649547</v>
+      </c>
+      <c r="E56">
+        <v>-0.0309640163088314</v>
+      </c>
+      <c r="F56">
+        <v>-0.05559568424237338</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.04728337010957941</v>
+        <v>0.04583513546113865</v>
       </c>
       <c r="C58">
-        <v>-0.005133150677362501</v>
+        <v>-0.0002410890717431485</v>
       </c>
       <c r="D58">
-        <v>-0.06645732077296461</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.0763841466978451</v>
+      </c>
+      <c r="E58">
+        <v>-0.03474664897118616</v>
+      </c>
+      <c r="F58">
+        <v>0.03731779473955554</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1590604344211735</v>
+        <v>0.166061554020873</v>
       </c>
       <c r="C59">
-        <v>-0.0168183162655217</v>
+        <v>-0.0238909460459257</v>
       </c>
       <c r="D59">
-        <v>0.225978297957878</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.2177445175568607</v>
+      </c>
+      <c r="E59">
+        <v>0.0496630094195851</v>
+      </c>
+      <c r="F59">
+        <v>0.04122743452805046</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2383144702526327</v>
+        <v>0.2302118124055991</v>
       </c>
       <c r="C60">
-        <v>-0.004691277223969085</v>
+        <v>-0.001528320092314357</v>
       </c>
       <c r="D60">
-        <v>-0.0352517154211579</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.03850753082530837</v>
+      </c>
+      <c r="E60">
+        <v>-0.001938256667133972</v>
+      </c>
+      <c r="F60">
+        <v>-0.006005146703881786</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.08143506094251811</v>
+        <v>0.07443626350776227</v>
       </c>
       <c r="C61">
-        <v>-0.01677773852010876</v>
+        <v>-0.0112450491411309</v>
       </c>
       <c r="D61">
-        <v>-0.109995861638941</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.1162719706122976</v>
+      </c>
+      <c r="E61">
+        <v>-0.0379849290634517</v>
+      </c>
+      <c r="F61">
+        <v>-0.00810193118538712</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1729658116849974</v>
+        <v>0.1691523449842549</v>
       </c>
       <c r="C62">
-        <v>-0.02434719108993487</v>
+        <v>-0.023523000293906</v>
       </c>
       <c r="D62">
-        <v>0.000103601887056126</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.006240872755615828</v>
+      </c>
+      <c r="E62">
+        <v>-0.03333794252685205</v>
+      </c>
+      <c r="F62">
+        <v>-0.04141587228258664</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04180735515714493</v>
+        <v>0.04571535010255794</v>
       </c>
       <c r="C63">
-        <v>-0.005510190518712921</v>
+        <v>-0.002075865517414858</v>
       </c>
       <c r="D63">
-        <v>-0.04914272078633604</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.06005597397046641</v>
+      </c>
+      <c r="E63">
+        <v>-0.02366742655248457</v>
+      </c>
+      <c r="F63">
+        <v>-0.001197127879884877</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.1143664557705449</v>
+        <v>0.1112526065687373</v>
       </c>
       <c r="C64">
-        <v>-0.0166161050326473</v>
+        <v>-0.01331318815302345</v>
       </c>
       <c r="D64">
-        <v>-0.03424585504403106</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.04226521654325251</v>
+      </c>
+      <c r="E64">
+        <v>-0.02481519105850117</v>
+      </c>
+      <c r="F64">
+        <v>-0.02763114945245026</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1447769779374697</v>
+        <v>0.151868940530991</v>
       </c>
       <c r="C65">
-        <v>-0.03646689105174781</v>
+        <v>-0.03619248655437651</v>
       </c>
       <c r="D65">
-        <v>0.05870248816805679</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.04573617382592303</v>
+      </c>
+      <c r="E65">
+        <v>-0.004122653069138683</v>
+      </c>
+      <c r="F65">
+        <v>-0.03780311871402735</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1337037890417836</v>
+        <v>0.119699702614325</v>
       </c>
       <c r="C66">
-        <v>-0.02153422576181936</v>
+        <v>-0.01474859343626166</v>
       </c>
       <c r="D66">
-        <v>-0.1303349292882773</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1405512811922289</v>
+      </c>
+      <c r="E66">
+        <v>-0.06437848870907298</v>
+      </c>
+      <c r="F66">
+        <v>-0.0285874298887686</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.06391987598702172</v>
+        <v>0.05644366027616886</v>
       </c>
       <c r="C67">
-        <v>-0.006417987126052575</v>
+        <v>-0.004029429120298594</v>
       </c>
       <c r="D67">
-        <v>-0.0544351505213879</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.05821135686328982</v>
+      </c>
+      <c r="E67">
+        <v>-0.0212578128167311</v>
+      </c>
+      <c r="F67">
+        <v>0.03420423715104721</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1064992698172941</v>
+        <v>0.1171860700585597</v>
       </c>
       <c r="C68">
-        <v>-0.02525321073467148</v>
+        <v>-0.03447818436368484</v>
       </c>
       <c r="D68">
-        <v>0.2644731231777132</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2611682036831388</v>
+      </c>
+      <c r="E68">
+        <v>0.08765400845870648</v>
+      </c>
+      <c r="F68">
+        <v>-0.0005179068445492598</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.03837145264306996</v>
+        <v>0.03752460078077892</v>
       </c>
       <c r="C69">
-        <v>-0.00217374943383739</v>
+        <v>-0.001300397419804189</v>
       </c>
       <c r="D69">
-        <v>-0.006868999281321432</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.00832401434725321</v>
+      </c>
+      <c r="E69">
+        <v>-0.02569141409786499</v>
+      </c>
+      <c r="F69">
+        <v>-7.316147758207568e-05</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.06749058572581415</v>
+        <v>0.06708768508551535</v>
       </c>
       <c r="C70">
-        <v>0.02421892357411171</v>
+        <v>0.02643578497501795</v>
       </c>
       <c r="D70">
-        <v>-0.02073156162280795</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.02660311299153791</v>
+      </c>
+      <c r="E70">
+        <v>0.02430725464710291</v>
+      </c>
+      <c r="F70">
+        <v>0.1826736617833904</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1252184021080569</v>
+        <v>0.1371529921815685</v>
       </c>
       <c r="C71">
-        <v>-0.02994083335271703</v>
+        <v>-0.03910862721735517</v>
       </c>
       <c r="D71">
-        <v>0.2808513711277421</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.270788585674972</v>
+      </c>
+      <c r="E71">
+        <v>0.09788419432877492</v>
+      </c>
+      <c r="F71">
+        <v>-0.005812250994174385</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1366932619963929</v>
+        <v>0.1440976104328397</v>
       </c>
       <c r="C72">
-        <v>-0.02886405963588337</v>
+        <v>-0.0293198700443005</v>
       </c>
       <c r="D72">
-        <v>-0.0009692157762778025</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.003515401877989052</v>
+      </c>
+      <c r="E72">
+        <v>-0.03927384726624928</v>
+      </c>
+      <c r="F72">
+        <v>-0.02811395487939792</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2027827498591179</v>
+        <v>0.2033272163308778</v>
       </c>
       <c r="C73">
-        <v>-0.01819467634604303</v>
+        <v>-0.0145575758601078</v>
       </c>
       <c r="D73">
-        <v>-0.007276808076929793</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.01800383422462187</v>
+      </c>
+      <c r="E73">
+        <v>-0.0634339993617468</v>
+      </c>
+      <c r="F73">
+        <v>-0.04413168285721988</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.09149547200265093</v>
+        <v>0.09264610876629459</v>
       </c>
       <c r="C74">
-        <v>-0.01476915216176141</v>
+        <v>-0.01421205299043554</v>
       </c>
       <c r="D74">
-        <v>-0.01514727481457659</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01714436829804575</v>
+      </c>
+      <c r="E74">
+        <v>-0.04209862189524027</v>
+      </c>
+      <c r="F74">
+        <v>-0.05249587065446228</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1335127767880547</v>
+        <v>0.1257616863436488</v>
       </c>
       <c r="C75">
-        <v>-0.03209508103318468</v>
+        <v>-0.03025646304966893</v>
       </c>
       <c r="D75">
-        <v>-0.02360374584238029</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.02976938254699869</v>
+      </c>
+      <c r="E75">
+        <v>-0.05549744665876614</v>
+      </c>
+      <c r="F75">
+        <v>-0.02176603049018032</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.08216271763018147</v>
+        <v>0.0921550440865954</v>
       </c>
       <c r="C77">
-        <v>-0.01433799674992493</v>
+        <v>-0.008826681321746349</v>
       </c>
       <c r="D77">
-        <v>-0.1135185070952543</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1170784536323218</v>
+      </c>
+      <c r="E77">
+        <v>-0.04647494388043567</v>
+      </c>
+      <c r="F77">
+        <v>-0.03685815405899291</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1022974701326844</v>
+        <v>0.1021503690250723</v>
       </c>
       <c r="C78">
-        <v>-0.0447300346075937</v>
+        <v>-0.04032800793648156</v>
       </c>
       <c r="D78">
-        <v>-0.1129106684476485</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1124705153550335</v>
+      </c>
+      <c r="E78">
+        <v>-0.07536789388052936</v>
+      </c>
+      <c r="F78">
+        <v>-0.05360368908902756</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1665693313253221</v>
+        <v>0.1634255635336598</v>
       </c>
       <c r="C79">
-        <v>-0.0269762536040589</v>
+        <v>-0.02586759226351466</v>
       </c>
       <c r="D79">
-        <v>-0.005886134120517219</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.01200752455868349</v>
+      </c>
+      <c r="E79">
+        <v>-0.04283973520966767</v>
+      </c>
+      <c r="F79">
+        <v>-0.01327769720084524</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.08112875170612498</v>
+        <v>0.07950877834765314</v>
       </c>
       <c r="C80">
-        <v>-0.002745253269283382</v>
+        <v>5.964789761837153e-05</v>
       </c>
       <c r="D80">
-        <v>-0.05249889962740836</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.0532052400439957</v>
+      </c>
+      <c r="E80">
+        <v>-0.03539078537312374</v>
+      </c>
+      <c r="F80">
+        <v>0.02718029591753382</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1210685794361125</v>
+        <v>0.1160800824936136</v>
       </c>
       <c r="C81">
-        <v>-0.03422412453780286</v>
+        <v>-0.03377903975909111</v>
       </c>
       <c r="D81">
-        <v>-0.007576838907386112</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01214864433581562</v>
+      </c>
+      <c r="E81">
+        <v>-0.0528523527088913</v>
+      </c>
+      <c r="F81">
+        <v>-0.01842900494266489</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.166237301397833</v>
+        <v>0.1649000168398746</v>
       </c>
       <c r="C82">
-        <v>-0.02760872443083007</v>
+        <v>-0.02818266029642424</v>
       </c>
       <c r="D82">
-        <v>-0.005455282901928826</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.003351204446871008</v>
+      </c>
+      <c r="E82">
+        <v>-0.02538118614254707</v>
+      </c>
+      <c r="F82">
+        <v>-0.0829106084761666</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.06322887324731272</v>
+        <v>0.05708653745998994</v>
       </c>
       <c r="C83">
-        <v>-0.006022299526463439</v>
+        <v>-0.003744563444742415</v>
       </c>
       <c r="D83">
-        <v>-0.04276329965568777</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.04619584957446955</v>
+      </c>
+      <c r="E83">
+        <v>-0.003044642684938425</v>
+      </c>
+      <c r="F83">
+        <v>0.03752104719457639</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.06122435255638108</v>
+        <v>0.05559188424862582</v>
       </c>
       <c r="C84">
-        <v>-0.01382053899300789</v>
+        <v>-0.0110812476949695</v>
       </c>
       <c r="D84">
-        <v>-0.06968540468732448</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.07274202310120723</v>
+      </c>
+      <c r="E84">
+        <v>-0.01226436742947688</v>
+      </c>
+      <c r="F84">
+        <v>-0.01492678184477788</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.139772997325359</v>
+        <v>0.1351245168586836</v>
       </c>
       <c r="C85">
-        <v>-0.03101713961297806</v>
+        <v>-0.03064201688612405</v>
       </c>
       <c r="D85">
-        <v>-0.006728426129121994</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.00944948366996164</v>
+      </c>
+      <c r="E85">
+        <v>-0.03458598608935287</v>
+      </c>
+      <c r="F85">
+        <v>-0.04896278292840419</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.1005600619574967</v>
+        <v>0.09331880413919276</v>
       </c>
       <c r="C86">
-        <v>0.002010445620591555</v>
+        <v>0.005153241385248031</v>
       </c>
       <c r="D86">
-        <v>-0.01662934613683071</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.05240486699266398</v>
+      </c>
+      <c r="E86">
+        <v>-0.233494571556014</v>
+      </c>
+      <c r="F86">
+        <v>0.8942638355862588</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.09658143686936525</v>
+        <v>0.09237645510119018</v>
       </c>
       <c r="C87">
-        <v>-0.02850687183117707</v>
+        <v>-0.02020628617514984</v>
       </c>
       <c r="D87">
-        <v>-0.07280701369180466</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09453216539298795</v>
+      </c>
+      <c r="E87">
+        <v>0.05253605406048813</v>
+      </c>
+      <c r="F87">
+        <v>-0.04808089705395758</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.06250588226572477</v>
+        <v>0.06074514554876809</v>
       </c>
       <c r="C88">
-        <v>-0.005788841570654347</v>
+        <v>-0.002878309839721721</v>
       </c>
       <c r="D88">
-        <v>-0.0488555824690515</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.04937019982286618</v>
+      </c>
+      <c r="E88">
+        <v>-0.02452669594064387</v>
+      </c>
+      <c r="F88">
+        <v>-0.01425745950006203</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1171092960504365</v>
+        <v>0.1268284879085167</v>
       </c>
       <c r="C89">
-        <v>-0.006084519468911843</v>
+        <v>-0.01451818115585181</v>
       </c>
       <c r="D89">
-        <v>0.2418784642923195</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.2426081794678309</v>
+      </c>
+      <c r="E89">
+        <v>0.08982914166068023</v>
+      </c>
+      <c r="F89">
+        <v>0.008451939052794472</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1376148059748115</v>
+        <v>0.152593249011593</v>
       </c>
       <c r="C90">
-        <v>-0.0263531377664006</v>
+        <v>-0.03597380455991695</v>
       </c>
       <c r="D90">
-        <v>0.2677450902339165</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2680283362360025</v>
+      </c>
+      <c r="E90">
+        <v>0.11376176721256</v>
+      </c>
+      <c r="F90">
+        <v>0.009354034647792402</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.1214916428210062</v>
+        <v>0.1197644561092056</v>
       </c>
       <c r="C91">
-        <v>-0.02171326299264059</v>
+        <v>-0.02194241054677439</v>
       </c>
       <c r="D91">
-        <v>0.02017275212718666</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.01700423730597035</v>
+      </c>
+      <c r="E91">
+        <v>-0.05372466512929846</v>
+      </c>
+      <c r="F91">
+        <v>0.001274763174167124</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.138004000977062</v>
+        <v>0.1450705442816468</v>
       </c>
       <c r="C92">
-        <v>-0.01700888909939334</v>
+        <v>-0.02677922038264379</v>
       </c>
       <c r="D92">
-        <v>0.2989822248063492</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.2934026581222256</v>
+      </c>
+      <c r="E92">
+        <v>0.1017662466753941</v>
+      </c>
+      <c r="F92">
+        <v>0.01917033586413435</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1406210496655527</v>
+        <v>0.1538849819939765</v>
       </c>
       <c r="C93">
-        <v>-0.02244329642119738</v>
+        <v>-0.03107287123132473</v>
       </c>
       <c r="D93">
-        <v>0.2661935732465364</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2640241406785054</v>
+      </c>
+      <c r="E93">
+        <v>0.07415432258486439</v>
+      </c>
+      <c r="F93">
+        <v>-0.003054162860937779</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1334647276156248</v>
+        <v>0.1257020199483774</v>
       </c>
       <c r="C94">
-        <v>-0.02852073254021898</v>
+        <v>-0.02628649733236601</v>
       </c>
       <c r="D94">
-        <v>-0.03824248459742872</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04120928142966794</v>
+      </c>
+      <c r="E94">
+        <v>-0.05674769069412725</v>
+      </c>
+      <c r="F94">
+        <v>-0.03228038339506636</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1278521261290992</v>
+        <v>0.1301554600772751</v>
       </c>
       <c r="C95">
-        <v>-0.01091860557557633</v>
+        <v>-0.005524809742527622</v>
       </c>
       <c r="D95">
-        <v>-0.08682205016513959</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.09749867639319244</v>
+      </c>
+      <c r="E95">
+        <v>-0.05716069336411064</v>
+      </c>
+      <c r="F95">
+        <v>-0.002909359883571542</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.1300075360753685</v>
+        <v>0.123062623977929</v>
       </c>
       <c r="C96">
-        <v>0.9858367776995048</v>
+        <v>0.9856558475409276</v>
       </c>
       <c r="D96">
-        <v>0.01887030529089437</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>-0.05082452332339459</v>
+      </c>
+      <c r="E96">
+        <v>-0.05033908067846872</v>
+      </c>
+      <c r="F96">
+        <v>-0.04296101833770329</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1946069367786053</v>
+        <v>0.1980660437962563</v>
       </c>
       <c r="C97">
-        <v>0.002027357066450739</v>
+        <v>0.002294675114296359</v>
       </c>
       <c r="D97">
-        <v>0.02748557204707752</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.02706078121570972</v>
+      </c>
+      <c r="E97">
+        <v>-0.0377012606193565</v>
+      </c>
+      <c r="F97">
+        <v>0.1194481131216276</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.2004655887433388</v>
+        <v>0.2060977575929518</v>
       </c>
       <c r="C98">
-        <v>-0.01331480713212575</v>
+        <v>-0.009433499192467946</v>
       </c>
       <c r="D98">
-        <v>-0.01151044287567109</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01401626817903499</v>
+      </c>
+      <c r="E98">
+        <v>0.07738515396545043</v>
+      </c>
+      <c r="F98">
+        <v>0.09548291163311751</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.0560859752006167</v>
+        <v>0.0552429281862336</v>
       </c>
       <c r="C99">
-        <v>0.001522079431146756</v>
+        <v>0.003637415880256211</v>
       </c>
       <c r="D99">
-        <v>-0.03167073179466172</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.03911289399180671</v>
+      </c>
+      <c r="E99">
+        <v>-0.02223033944544326</v>
+      </c>
+      <c r="F99">
+        <v>-0.003425453640149672</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.1474256158584927</v>
+        <v>0.1330116891867065</v>
       </c>
       <c r="C100">
-        <v>0.03673915148836705</v>
+        <v>0.04912701143627859</v>
       </c>
       <c r="D100">
-        <v>-0.3884352276418683</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.3541013885601899</v>
+      </c>
+      <c r="E100">
+        <v>0.8828689263483602</v>
+      </c>
+      <c r="F100">
+        <v>0.1610122155167318</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02589973484308056</v>
+        <v>0.02852040902445452</v>
       </c>
       <c r="C101">
-        <v>-0.00992674428313842</v>
+        <v>-0.009082887508990086</v>
       </c>
       <c r="D101">
-        <v>-0.02884456731940916</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.02929415781798537</v>
+      </c>
+      <c r="E101">
+        <v>-0.01645052447832948</v>
+      </c>
+      <c r="F101">
+        <v>0.01427608624646839</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
